--- a/fotoE.xlsx
+++ b/fotoE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study staff\share\arielmichaelshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C75EF7-589E-489B-84AE-F4C00E2F48B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52674C8B-7B54-4188-8CE2-EAB3AFDE1E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
   </bookViews>
   <sheets>
     <sheet name="ניוסי 1.1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>נתוני נורה:</t>
   </si>
@@ -316,14 +315,37 @@
   </si>
   <si>
     <t>נתוני פילטר: 602nm</t>
+  </si>
+  <si>
+    <t>תוצאות בצורה יפה</t>
+  </si>
+  <si>
+    <t>תוצאות יפות</t>
+  </si>
+  <si>
+    <t>שגיאה מתח</t>
+  </si>
+  <si>
+    <t>להתעלם:</t>
+  </si>
+  <si>
+    <t>שגיאה במתח</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -351,9 +373,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1073E-DF96-4A4B-8F50-368DEAF34C1B}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B27"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,9 +702,11 @@
     <col min="1" max="1" width="17.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -700,143 +725,316 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>2E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>2E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>2E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>0.39700000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>2E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>0.34399999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>2E-3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>2E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.501</v>
+      </c>
+      <c r="F17">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E18">
+        <f>H18/1000</f>
+        <v>0.2505</v>
+      </c>
+      <c r="F18">
+        <v>0.19</v>
+      </c>
+      <c r="H18">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E27" si="0">H19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>-4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="F20">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>-7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>2E-3</v>
+      </c>
+      <c r="E21">
+        <v>-0.503</v>
+      </c>
+      <c r="F21">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>"-0.751+-0.002V"</f>
         <v>-0.751+-0.002V</v>
@@ -844,67 +1042,145 @@
       <c r="B22">
         <v>-7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>-0.751</v>
+      </c>
+      <c r="F22">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-0.34939999999999999</v>
+      </c>
+      <c r="F23">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>-349.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-0.30010000000000003</v>
+      </c>
+      <c r="F24">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <v>-300.10000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="F25">
+        <v>-1E-3</v>
+      </c>
+      <c r="H25">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-0.1525</v>
+      </c>
+      <c r="F26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>-152.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>3.1E-2</v>
       </c>
+      <c r="D27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-7.1499999999999994E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H27">
+        <v>-71.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B9B6CC-8DB9-4FDC-8800-8971216D4E71}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -912,95 +1188,169 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1008,16 +1358,28 @@
         <v>32</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1025,16 +1387,28 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>-1.4E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>"-0.750+-0.002V"</f>
         <v>-0.750+-0.002V</v>
@@ -1042,44 +1416,81 @@
       <c r="B18">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f>"-0.750+-0.002V"</f>
+        <v>-0.750+-0.002V</v>
+      </c>
+      <c r="F18">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22">
         <v>-1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
@@ -1869,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5B8F10-BC92-430A-843A-CC74607DFDE4}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/fotoE.xlsx
+++ b/fotoE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study staff\share\arielmichaelshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52674C8B-7B54-4188-8CE2-EAB3AFDE1E5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D49FF-7584-4A87-8B3E-94F8CE2386D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="11" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
   </bookViews>
   <sheets>
     <sheet name="ניוסי 1.1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="ניסוי 2" sheetId="5" r:id="rId5"/>
     <sheet name="ניסוי 3.1" sheetId="6" r:id="rId6"/>
     <sheet name="ניסוי 3.2" sheetId="7" r:id="rId7"/>
+    <sheet name="ניסוי 4.1" sheetId="8" r:id="rId8"/>
+    <sheet name="ניסוי 4.2" sheetId="9" r:id="rId9"/>
+    <sheet name="ניסוי 4.3" sheetId="10" r:id="rId10"/>
+    <sheet name="ניסוי 5" sheetId="11" r:id="rId11"/>
+    <sheet name="ניסוי 6" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>נתוני נורה:</t>
   </si>
@@ -330,6 +335,81 @@
   </si>
   <si>
     <t>שגיאה במתח</t>
+  </si>
+  <si>
+    <t>שגיאה זרם</t>
+  </si>
+  <si>
+    <t>זרם: mA</t>
+  </si>
+  <si>
+    <t>תוצאות בצורה יפה:</t>
+  </si>
+  <si>
+    <t>זרם:</t>
+  </si>
+  <si>
+    <t>מתח - נגד</t>
+  </si>
+  <si>
+    <t>מתח - דיודה</t>
+  </si>
+  <si>
+    <t>מתח - נגד שגיאה</t>
+  </si>
+  <si>
+    <t>מתח - דיודה שגיאה</t>
+  </si>
+  <si>
+    <t>חושך</t>
+  </si>
+  <si>
+    <t>מרחק הנורה 31+-2 ס"מ</t>
+  </si>
+  <si>
+    <t>מרחק הנורה 71+-2 ס"מ</t>
+  </si>
+  <si>
+    <t>מרחק +-1cm</t>
+  </si>
+  <si>
+    <t>מתח נגד +-0.0002v</t>
+  </si>
+  <si>
+    <t>מתח bias - -2.8V</t>
+  </si>
+  <si>
+    <t>מתח חילופין 6V</t>
+  </si>
+  <si>
+    <t>טווח הטבעות:</t>
+  </si>
+  <si>
+    <t>1.2kv-4.29kv</t>
+  </si>
+  <si>
+    <t>מתח +-0.02kV</t>
+  </si>
+  <si>
+    <t>טבעת חיצונית - בחוץ</t>
+  </si>
+  <si>
+    <t>טבעת פנימית - בחוץ</t>
+  </si>
+  <si>
+    <t>טבעת פנימית - בפנים</t>
+  </si>
+  <si>
+    <t>טבעת חיצונית - בפנים</t>
+  </si>
+  <si>
+    <t>שגיאה קוטר - +-0.25</t>
+  </si>
+  <si>
+    <t>רדיוס פנימי</t>
+  </si>
+  <si>
+    <t>רדיוס חיצוני</t>
   </si>
 </sst>
 </file>
@@ -693,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1073E-DF96-4A4B-8F50-368DEAF34C1B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +786,7 @@
     <col min="5" max="5" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -725,12 +805,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -747,7 +827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -763,8 +843,11 @@
       <c r="F6">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -780,8 +863,11 @@
       <c r="F7">
         <v>0.56200000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -797,8 +883,11 @@
       <c r="F8">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -814,8 +903,11 @@
       <c r="F9">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -831,8 +923,11 @@
       <c r="F10">
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -848,8 +943,11 @@
       <c r="F11">
         <v>0.505</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -865,8 +963,11 @@
       <c r="F12">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -882,8 +983,11 @@
       <c r="F13">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -899,8 +1003,11 @@
       <c r="F14">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -916,8 +1023,11 @@
       <c r="F15">
         <v>0.39700000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -932,6 +1042,9 @@
       </c>
       <c r="F16">
         <v>0.34399999999999997</v>
+      </c>
+      <c r="G16">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -950,6 +1063,9 @@
       <c r="F17">
         <v>0.26200000000000001</v>
       </c>
+      <c r="G17">
+        <v>2E-3</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>96</v>
       </c>
@@ -971,6 +1087,9 @@
       <c r="F18">
         <v>0.19</v>
       </c>
+      <c r="G18">
+        <v>2E-3</v>
+      </c>
       <c r="H18">
         <v>250.5</v>
       </c>
@@ -992,6 +1111,9 @@
       <c r="F19">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="G19">
+        <v>2E-3</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -1013,6 +1135,9 @@
       <c r="F20">
         <v>-4.0000000000000001E-3</v>
       </c>
+      <c r="G20">
+        <v>2E-3</v>
+      </c>
       <c r="H20">
         <v>-250</v>
       </c>
@@ -1032,6 +1157,9 @@
       </c>
       <c r="F21">
         <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1051,6 +1179,9 @@
       <c r="F22">
         <v>-7.0000000000000001E-3</v>
       </c>
+      <c r="G22">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1069,6 +1200,9 @@
       <c r="F23">
         <v>-6.0000000000000001E-3</v>
       </c>
+      <c r="G23">
+        <v>2E-3</v>
+      </c>
       <c r="H23">
         <v>-349.4</v>
       </c>
@@ -1090,6 +1224,9 @@
       <c r="F24">
         <v>-6.0000000000000001E-3</v>
       </c>
+      <c r="G24">
+        <v>2E-3</v>
+      </c>
       <c r="H24">
         <v>-300.10000000000002</v>
       </c>
@@ -1111,6 +1248,9 @@
       <c r="F25">
         <v>-1E-3</v>
       </c>
+      <c r="G25">
+        <v>2E-3</v>
+      </c>
       <c r="H25">
         <v>-200</v>
       </c>
@@ -1132,6 +1272,9 @@
       <c r="F26">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="G26">
+        <v>2E-3</v>
+      </c>
       <c r="H26">
         <v>-152.5</v>
       </c>
@@ -1153,6 +1296,9 @@
       <c r="F27">
         <v>3.1E-2</v>
       </c>
+      <c r="G27">
+        <v>2E-3</v>
+      </c>
       <c r="H27">
         <v>-71.5</v>
       </c>
@@ -1160,6 +1306,738 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30EFA45-98A5-443C-8950-74981AF235A7}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-2.66</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-1.77</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+      <c r="C4">
+        <v>-2E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.3</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="C6">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="D6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.02</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.19</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.02</v>
+      </c>
+      <c r="C10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.37</v>
+      </c>
+      <c r="B11">
+        <v>0.02</v>
+      </c>
+      <c r="C11">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>0.02</v>
+      </c>
+      <c r="C12">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="D12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.42</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>0.41</v>
+      </c>
+      <c r="D13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.31</v>
+      </c>
+      <c r="B15">
+        <v>0.02</v>
+      </c>
+      <c r="C15">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.32</v>
+      </c>
+      <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.34</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.36</v>
+      </c>
+      <c r="B18">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.38</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.1057</v>
+      </c>
+      <c r="D19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.39</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+      <c r="C20">
+        <v>0.1429</v>
+      </c>
+      <c r="D20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.41</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <v>0.2601</v>
+      </c>
+      <c r="D21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.44</v>
+      </c>
+      <c r="B22">
+        <v>0.02</v>
+      </c>
+      <c r="C22">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.48</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="D23">
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0F111F-F77C-404C-A2E0-396FFC7D3CDE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>A3+5</f>
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>-0.65200000000000002</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" ref="A5:A10" si="0">A4+5</f>
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>-0.30059999999999998</v>
+      </c>
+      <c r="C6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>-0.22470000000000001</v>
+      </c>
+      <c r="C7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>-0.1734</v>
+      </c>
+      <c r="C8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>A8+5</f>
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>-0.1386</v>
+      </c>
+      <c r="C9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>-0.1138</v>
+      </c>
+      <c r="C10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D64B3B7-7080-4A86-847F-8A76805FDF84}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="B3">
+        <v>64.19</v>
+      </c>
+      <c r="C3">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="D3">
+        <v>37.57</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(C3:D3)/2</f>
+        <v>19.425000000000001</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(A3:B3)/2</f>
+        <v>32.634999999999998</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>59.86</v>
+      </c>
+      <c r="B4">
+        <v>57.31</v>
+      </c>
+      <c r="C4">
+        <v>36.54</v>
+      </c>
+      <c r="D4">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">AVERAGE(C4:D4)/2</f>
+        <v>17.48</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">AVERAGE(A4:B4)/2</f>
+        <v>29.2925</v>
+      </c>
+      <c r="G4">
+        <f>G3+0.35</f>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>55.46</v>
+      </c>
+      <c r="B5">
+        <v>52.76</v>
+      </c>
+      <c r="C5">
+        <v>33.25</v>
+      </c>
+      <c r="D5">
+        <v>31.16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16.102499999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>27.055</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="2">G4+0.35</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>52.17</v>
+      </c>
+      <c r="B6">
+        <v>48.79</v>
+      </c>
+      <c r="C6">
+        <v>30.64</v>
+      </c>
+      <c r="D6">
+        <v>28.67</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14.827500000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>25.240000000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2.5500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>48.49</v>
+      </c>
+      <c r="B7">
+        <v>45.73</v>
+      </c>
+      <c r="C7">
+        <v>29.1</v>
+      </c>
+      <c r="D7">
+        <v>26.19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>13.822500000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>23.555</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>46.11</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>27.44</v>
+      </c>
+      <c r="D8">
+        <v>24.56</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>22.2775</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>44.27</v>
+      </c>
+      <c r="B9">
+        <v>41.56</v>
+      </c>
+      <c r="C9">
+        <v>26.24</v>
+      </c>
+      <c r="D9">
+        <v>23.54</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>12.445</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>21.457500000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>42.13</v>
+      </c>
+      <c r="B10">
+        <v>39.71</v>
+      </c>
+      <c r="C10">
+        <v>24.92</v>
+      </c>
+      <c r="D10">
+        <v>22.95</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>11.967500000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>20.46</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.9500000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1167,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B9B6CC-8DB9-4FDC-8800-8971216D4E71}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,11 +2095,14 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="F4">
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1231,11 +2112,14 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
+      <c r="F5">
+        <v>4.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1245,11 +2129,14 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
+      <c r="F6">
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1259,11 +2146,14 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
+      <c r="F7">
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1273,11 +2163,14 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
+      <c r="F8">
+        <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1287,11 +2180,14 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
+      <c r="D9">
+        <v>2E-3</v>
+      </c>
       <c r="E9">
         <v>3.5</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
+      <c r="F9">
+        <v>4.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1301,11 +2197,14 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
+      <c r="D10">
+        <v>2E-3</v>
+      </c>
       <c r="E10">
         <v>3.0019999999999998</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
+      <c r="F10">
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1315,11 +2214,14 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
+      <c r="D11">
+        <v>2E-3</v>
+      </c>
       <c r="E11">
         <v>2.5009999999999999</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
+      <c r="F11">
+        <v>4.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1329,11 +2231,14 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
       <c r="E12">
         <v>2.0009999999999999</v>
       </c>
-      <c r="F12" t="s">
-        <v>33</v>
+      <c r="F12">
+        <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1343,11 +2248,14 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="D13">
+        <v>2E-3</v>
+      </c>
       <c r="E13">
         <v>1.4990000000000001</v>
       </c>
-      <c r="F13" t="s">
-        <v>34</v>
+      <c r="F13">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1358,11 +2266,14 @@
         <v>32</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14">
+        <v>2E-3</v>
+      </c>
       <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="F14" t="s">
-        <v>32</v>
+      <c r="F14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1372,8 +2283,12 @@
       <c r="B15">
         <v>0.64600000000000002</v>
       </c>
-      <c r="E15" t="s">
-        <v>31</v>
+      <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
+        <f>0.8/1000</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F15">
         <v>0.64600000000000002</v>
@@ -1387,8 +2302,12 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="E16" t="s">
-        <v>35</v>
+      <c r="D16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <f>-252.7/1000</f>
+        <v>-0.25269999999999998</v>
       </c>
       <c r="F16">
         <v>0.10199999999999999</v>
@@ -1401,8 +2320,11 @@
       <c r="B17">
         <v>-1.4E-2</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
+      <c r="D17">
+        <v>2E-3</v>
+      </c>
+      <c r="E17">
+        <v>-0.503</v>
       </c>
       <c r="F17">
         <v>-1.4E-2</v>
@@ -1416,9 +2338,11 @@
       <c r="B18">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="E18" t="str">
-        <f>"-0.750+-0.002V"</f>
-        <v>-0.750+-0.002V</v>
+      <c r="D18">
+        <v>2E-3</v>
+      </c>
+      <c r="E18">
+        <v>-0.75</v>
       </c>
       <c r="F18">
         <v>-1.7999999999999999E-2</v>
@@ -1431,8 +2355,12 @@
       <c r="B19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
+      <c r="D19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E19">
+        <f>-352.4/1000</f>
+        <v>-0.35239999999999999</v>
       </c>
       <c r="F19">
         <v>2.1000000000000001E-2</v>
@@ -1445,8 +2373,11 @@
       <c r="B20">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
+      <c r="D20">
+        <v>2E-3</v>
+      </c>
+      <c r="E20">
+        <v>-0.8</v>
       </c>
       <c r="F20">
         <v>-1.7999999999999999E-2</v>
@@ -1459,8 +2390,11 @@
       <c r="B21">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>38</v>
+      <c r="D21">
+        <v>2E-3</v>
+      </c>
+      <c r="E21">
+        <v>-0.69899999999999995</v>
       </c>
       <c r="F21">
         <v>-1.7999999999999999E-2</v>
@@ -1473,8 +2407,11 @@
       <c r="B22">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>39</v>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>-0.6</v>
       </c>
       <c r="F22">
         <v>-1.7000000000000001E-2</v>
@@ -1487,8 +2424,11 @@
       <c r="B23">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
+      <c r="D23">
+        <v>2E-3</v>
+      </c>
+      <c r="E23">
+        <v>-0.45400000000000001</v>
       </c>
       <c r="F23">
         <v>-8.9999999999999993E-3</v>
@@ -1501,19 +2441,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E36B2-D10A-48D0-B205-AE7B77451AD8}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1521,79 +2465,196 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="G6">
+        <v>4.3</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>2E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.501</v>
+      </c>
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F9">
+        <f>-1.1/1000</f>
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <f>-250.8/1000</f>
+        <v>-0.25080000000000002</v>
+      </c>
+      <c r="G10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11">
         <v>-1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2E-3</v>
+      </c>
+      <c r="F11">
+        <v>-0.504</v>
+      </c>
+      <c r="G11">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>"-0.751+-0.002V"</f>
         <v>-0.751+-0.002V</v>
@@ -1601,48 +2662,122 @@
       <c r="B12">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12">
+        <v>-0.751</v>
+      </c>
+      <c r="G12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
       <c r="B13">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13">
+        <f>-349.6/1000</f>
+        <v>-0.34960000000000002</v>
+      </c>
+      <c r="G13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2E-3</v>
+      </c>
+      <c r="F14">
+        <v>-0.70199999999999996</v>
+      </c>
+      <c r="G14">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
       <c r="B15">
         <v>-1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2E-3</v>
+      </c>
+      <c r="F15">
+        <v>-0.60299999999999998</v>
+      </c>
+      <c r="G15">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16">
         <v>-1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2E-3</v>
+      </c>
+      <c r="F16">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2E-3</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>"-149.7+-0.1mV"</f>
         <v>-149.7+-0.1mV</v>
@@ -1650,8 +2785,22 @@
       <c r="B18">
         <v>0.223</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <f>-149.7/1000</f>
+        <v>-0.1497</v>
+      </c>
+      <c r="G18">
+        <v>0.223</v>
+      </c>
+      <c r="H18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>"100.2+-0.1mV"</f>
         <v>100.2+-0.1mV</v>
@@ -1659,45 +2808,121 @@
       <c r="B19">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19">
+        <f>100.2/1000</f>
+        <v>0.1002</v>
+      </c>
+      <c r="G19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20">
         <v>-1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2E-3</v>
+      </c>
+      <c r="F20">
+        <v>-0.65</v>
+      </c>
+      <c r="G20">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
       <c r="B21">
         <v>1.3220000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>0.2/1000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F21">
+        <f>300.1/1000</f>
+        <v>0.30010000000000003</v>
+      </c>
+      <c r="G21">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="H21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.504</v>
+      </c>
+      <c r="G22">
+        <v>3.8</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G23">
+        <v>2.9</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
+      </c>
+      <c r="E24">
+        <v>2E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.751</v>
+      </c>
+      <c r="G24">
+        <v>2.4</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1707,19 +2932,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6710CF-C742-4EA5-8011-15682EB3DBD5}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.36328125" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1727,188 +2956,471 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>2.7</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>7.99</v>
+      </c>
+      <c r="G5">
+        <v>2.6</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>2.4</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>2E-3</v>
+      </c>
+      <c r="F9">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.1</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>68</v>
       </c>
       <c r="B10">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>2E-3</v>
+      </c>
+      <c r="F10">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="G10">
+        <v>1.85</v>
+      </c>
+      <c r="H10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
       <c r="B11">
         <v>1.385</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.997</v>
+      </c>
+      <c r="G11">
+        <v>1.385</v>
+      </c>
+      <c r="H11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>70</v>
       </c>
       <c r="B12">
         <v>0.98799999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.502</v>
+      </c>
+      <c r="G12">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13">
+        <f>251.4/1000</f>
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
       <c r="B14">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F14">
+        <f>0.1/1000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G14">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
       <c r="B15">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F15">
+        <f>-201.4/1000</f>
+        <v>-0.2014</v>
+      </c>
+      <c r="G15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>74</v>
       </c>
       <c r="B16">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <f>-302.3/1000</f>
+        <v>-0.30230000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1E-3</v>
+      </c>
+      <c r="H16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>76</v>
       </c>
       <c r="B17">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2E-3</v>
+      </c>
+      <c r="F17">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="G17">
+        <v>-0.01</v>
+      </c>
+      <c r="H17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>75</v>
       </c>
       <c r="B18">
         <v>-1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2E-3</v>
+      </c>
+      <c r="F18">
+        <v>-0.45</v>
+      </c>
+      <c r="G18">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
       <c r="B19">
         <v>-1.2E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2E-3</v>
+      </c>
+      <c r="F19">
+        <v>-0.5</v>
+      </c>
+      <c r="G19">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>78</v>
       </c>
       <c r="B20">
         <v>-1.2E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2E-3</v>
+      </c>
+      <c r="F20">
+        <v>-0.55800000000000005</v>
+      </c>
+      <c r="G20">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21">
         <v>-1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2E-3</v>
+      </c>
+      <c r="F21">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="G21">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22">
         <v>-1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22">
+        <v>-0.65100000000000002</v>
+      </c>
+      <c r="G22">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23">
         <v>-1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2E-3</v>
+      </c>
+      <c r="F23">
+        <v>-0.8</v>
+      </c>
+      <c r="G23">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24">
         <v>1.6619999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="H24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>82</v>
       </c>
       <c r="B25">
         <v>0.124</v>
+      </c>
+      <c r="E25">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25">
+        <f>-102.2/1000</f>
+        <v>-0.1022</v>
+      </c>
+      <c r="G25">
+        <v>0.124</v>
+      </c>
+      <c r="H25">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +3433,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B5003-69CE-4749-A808-BB4788C35051}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
@@ -2479,4 +3991,683 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11D8CEC-93A0-4611-A914-CE91C39F83EE}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-2.66</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <f>-217.5/1000</f>
+        <v>-0.2175</v>
+      </c>
+      <c r="D3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-1.77</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+      <c r="C4">
+        <f>-215.7/1000</f>
+        <v>-0.21569999999999998</v>
+      </c>
+      <c r="D4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <f>-213.8/1000</f>
+        <v>-0.21380000000000002</v>
+      </c>
+      <c r="D5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.3</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="C6">
+        <f>-212.2/1000</f>
+        <v>-0.2122</v>
+      </c>
+      <c r="D6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.02</v>
+      </c>
+      <c r="C7">
+        <f>-211.4/1000</f>
+        <v>-0.2114</v>
+      </c>
+      <c r="D7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.19</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>-0.21049999999999999</v>
+      </c>
+      <c r="D8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <f>-205.1/1000</f>
+        <v>-0.2051</v>
+      </c>
+      <c r="D9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.02</v>
+      </c>
+      <c r="C10">
+        <f>-174.6/1000</f>
+        <v>-0.17460000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.37</v>
+      </c>
+      <c r="B11">
+        <v>0.02</v>
+      </c>
+      <c r="C11">
+        <f>-138.3/1000</f>
+        <v>-0.13830000000000001</v>
+      </c>
+      <c r="D11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>0.02</v>
+      </c>
+      <c r="C12">
+        <f>3/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.42</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <f>0.2003</f>
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <f>-206.8/1000</f>
+        <v>-0.20680000000000001</v>
+      </c>
+      <c r="D14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.31</v>
+      </c>
+      <c r="B15">
+        <v>0.02</v>
+      </c>
+      <c r="C15">
+        <v>-0.2019</v>
+      </c>
+      <c r="D15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.32</v>
+      </c>
+      <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
+        <v>-0.1961</v>
+      </c>
+      <c r="D16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.34</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>-0.1865</v>
+      </c>
+      <c r="D17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.36</v>
+      </c>
+      <c r="B18">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>-0.1608</v>
+      </c>
+      <c r="D18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.38</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>-0.1032</v>
+      </c>
+      <c r="D19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.39</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+      <c r="C20">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.41</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.48</v>
+      </c>
+      <c r="B22">
+        <v>0.02</v>
+      </c>
+      <c r="C22">
+        <v>1.903</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.44</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D23">
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9634E6-97C1-4B97-BE6E-EB5071CCB2F3}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-2.66</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>-5.9799999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-1.77</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+      <c r="C4">
+        <v>-5.8599999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>-5.7599999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.3</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="C6">
+        <v>-5.67E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.02</v>
+      </c>
+      <c r="C7">
+        <v>-5.62E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.19</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <v>-4.8800000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>0.02</v>
+      </c>
+      <c r="C10">
+        <v>-0.01</v>
+      </c>
+      <c r="D10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.37</v>
+      </c>
+      <c r="B11">
+        <v>0.02</v>
+      </c>
+      <c r="C11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>0.02</v>
+      </c>
+      <c r="C12">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="D12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.42</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>-5.21E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.31</v>
+      </c>
+      <c r="B15">
+        <v>0.02</v>
+      </c>
+      <c r="C15">
+        <v>-4.8500000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.32</v>
+      </c>
+      <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
+        <v>-4.41E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.34</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.36</v>
+      </c>
+      <c r="B18">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.38</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0.39</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+      <c r="C20">
+        <v>8.48E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0.41</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.44</v>
+      </c>
+      <c r="B22">
+        <v>0.02</v>
+      </c>
+      <c r="C22">
+        <v>0.74</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.48</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>1.966</v>
+      </c>
+      <c r="D23">
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fotoE.xlsx
+++ b/fotoE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study staff\share\arielmichaelshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D49FF-7584-4A87-8B3E-94F8CE2386D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6CF13-01A6-4135-86D8-5AC2353684F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="11" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{3FC83FA8-7706-424B-A20B-6FAC0058F37C}"/>
   </bookViews>
   <sheets>
     <sheet name="ניוסי 1.1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>נתוני נורה:</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>רדיוס חיצוני</t>
+  </si>
+  <si>
+    <t>אורך גל:</t>
+  </si>
+  <si>
+    <t>שגיאה</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E27" sqref="E6:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,6 +790,7 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
     <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1081,7 +1088,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E18">
-        <f>H18/1000</f>
+        <f>250.5/1000</f>
         <v>0.2505</v>
       </c>
       <c r="F18">
@@ -1089,9 +1096,6 @@
       </c>
       <c r="G18">
         <v>2E-3</v>
-      </c>
-      <c r="H18">
-        <v>250.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1114,9 +1118,6 @@
       <c r="G19">
         <v>2E-3</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -1129,7 +1130,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>-250/1000</f>
         <v>-0.25</v>
       </c>
       <c r="F20">
@@ -1137,9 +1138,6 @@
       </c>
       <c r="G20">
         <v>2E-3</v>
-      </c>
-      <c r="H20">
-        <v>-250</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1648,7 +1646,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,23 +1774,25 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D64B3B7-7080-4A86-847F-8A76805FDF84}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1828,8 +1828,14 @@
       <c r="I2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>66.349999999999994</v>
       </c>
@@ -1853,8 +1859,16 @@
       <c r="G3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <f>SQRT(1.5/(G3*1000))*10^-9</f>
+        <v>3.1622776601683794E-11</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(3)/(2*(G3*1000))^1.5*0.02*1000*10^-9</f>
+        <v>2.1081851067789201E-13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59.86</v>
       </c>
@@ -1879,8 +1893,16 @@
         <f>G3+0.35</f>
         <v>1.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="2">SQRT(1.5/(G4*1000))*10^-9</f>
+        <v>2.8474739872574971E-11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="3">SQRT(3)/(2*(G4*1000))^1.5*0.02*1000*10^-9</f>
+        <v>1.539175128247296E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>55.46</v>
       </c>
@@ -1902,11 +1924,19 @@
         <v>27.055</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G10" si="2">G4+0.35</f>
+        <f t="shared" ref="G5:G10" si="4">G4+0.35</f>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>2.6111648393354679E-11</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>1.1868931087888476E-13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>52.17</v>
       </c>
@@ -1928,11 +1958,19 @@
         <v>25.240000000000002</v>
       </c>
       <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>2.5500000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.4253562503633299E-11</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>9.511200981816976E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>48.49</v>
       </c>
@@ -1954,11 +1992,19 @@
         <v>23.555</v>
       </c>
       <c r="G7">
+        <f t="shared" si="4"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>2.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.2742941307367102E-11</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>7.8423935542645199E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>46.11</v>
       </c>
@@ -1980,11 +2026,19 @@
         <v>22.2775</v>
       </c>
       <c r="G8">
+        <f t="shared" si="4"/>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>3.2500000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.1483446221182986E-11</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>6.6102911449793711E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>44.27</v>
       </c>
@@ -2006,11 +2060,19 @@
         <v>21.457500000000003</v>
       </c>
       <c r="G9">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>3.6000000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2.0412414523193151E-11</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>5.6701151453314358E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>42.13</v>
       </c>
@@ -2032,21 +2094,160 @@
         <v>20.46</v>
       </c>
       <c r="G10">
+        <f t="shared" si="4"/>
+        <v>3.9500000000000006</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>3.9500000000000006</v>
+        <v>1.9487094073848929E-11</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>4.9334415376832768E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>E3/1000</f>
+        <v>1.9425000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <f>F3/1000</f>
+        <v>3.2634999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" ref="E13:F19" si="5">E4/1000</f>
+        <v>1.7479999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>2.9292499999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>1.6102499999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>2.7054999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>1.48275E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>2.5240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>1.3822500000000001E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>2.3555E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>2.2277499999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>1.2444999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>2.1457500000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>1.1967500000000001E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>2.0460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f>E11/100</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>F11/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>E12/100</f>
+        <v>1.9425000000000001E-4</v>
+      </c>
+      <c r="F21">
+        <f>F12/100</f>
+        <v>3.2634999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>E13/100</f>
+        <v>1.7479999999999999E-4</v>
+      </c>
+      <c r="F22">
+        <f>F13/100</f>
+        <v>2.9292499999999998E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f>E14/100</f>
+        <v>1.61025E-4</v>
+      </c>
+      <c r="F23">
+        <f>F14/100</f>
+        <v>2.7054999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>E15/100</f>
+        <v>1.4827500000000001E-4</v>
+      </c>
+      <c r="F24">
+        <f>F15/100</f>
+        <v>2.5240000000000001E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B9B6CC-8DB9-4FDC-8800-8971216D4E71}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="D4:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2058,7 +2259,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2066,12 +2267,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2104,8 +2305,11 @@
       <c r="F4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2121,8 +2325,11 @@
       <c r="F5">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2138,8 +2345,11 @@
       <c r="F6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2155,8 +2365,11 @@
       <c r="F7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2172,8 +2385,11 @@
       <c r="F8">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2189,8 +2405,11 @@
       <c r="F9">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2206,8 +2425,11 @@
       <c r="F10">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2223,8 +2445,11 @@
       <c r="F11">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2240,8 +2465,11 @@
       <c r="F12">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2257,8 +2485,11 @@
       <c r="F13">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2275,8 +2506,11 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2293,8 +2527,11 @@
       <c r="F15">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2312,8 +2549,11 @@
       <c r="F16">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2329,8 +2569,11 @@
       <c r="F17">
         <v>-1.4E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>"-0.750+-0.002V"</f>
         <v>-0.750+-0.002V</v>
@@ -2347,8 +2590,11 @@
       <c r="F18">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2365,8 +2611,11 @@
       <c r="F19">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2382,8 +2631,11 @@
       <c r="F20">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2399,8 +2651,11 @@
       <c r="F21">
         <v>-1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2416,8 +2671,11 @@
       <c r="F22">
         <v>-1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2432,6 +2690,9 @@
       </c>
       <c r="F23">
         <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G23">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2443,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E36B2-D10A-48D0-B205-AE7B77451AD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="E24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2934,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6710CF-C742-4EA5-8011-15682EB3DBD5}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="E24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3433,7 +3694,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3585,19 +3846,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5B5003-69CE-4749-A808-BB4788C35051}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -3605,7 +3866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -3613,15 +3874,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f>100/93*B3-1/310</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>RADIANS(G3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>A3-60</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+5</f>
         <v>65</v>
@@ -3629,98 +3905,267 @@
       <c r="B4">
         <v>0.93200000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <f t="shared" ref="D4:D21" si="0">100/93*B4-1/310</f>
+        <v>0.99892473118279579</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="1">RADIANS(G4)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="2">A4-60</f>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J4">
+        <f>RADIANS(2.5)</f>
+        <v>4.3633231299858237E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" ref="A5:A14" si="0">A4+5</f>
+        <f t="shared" ref="A5:A14" si="3">A4+5</f>
         <v>70</v>
       </c>
       <c r="B5">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.97956989247311832</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B6">
         <v>0.88200000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.94516129032258067</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B7">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.89677419354838706</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B8">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.82903225806451619</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B9">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.76129032258064511</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B10">
         <v>0.63700000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.68172043010752692</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B11">
         <v>0.55500000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.59354838709677427</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B12">
         <v>0.46800000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B13">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.41075268817204297</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B14">
         <v>0.311</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.33118279569892473</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>A14+5</f>
         <v>120</v>
@@ -3728,58 +4173,163 @@
       <c r="B15">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.25376344086021502</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" ref="A16:A20" si="1">A15+5</f>
+        <f t="shared" ref="A16:A20" si="4">A15+5</f>
         <v>125</v>
       </c>
       <c r="B16">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.17956989247311828</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B17">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.12258064516129032</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B18">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7.4193548387096769E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B19">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B20">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.075268817204301E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>A20+5</f>
         <v>150</v>
       </c>
       <c r="B21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H21">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3790,19 +4340,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5B8F10-BC92-430A-843A-CC74607DFDE4}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J3" sqref="I3:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -3810,7 +4361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -3818,15 +4369,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f>RADIANS(A3)</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="G3">
+        <f>RADIANS(A3-60)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>A3-60</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+5</f>
         <v>65</v>
@@ -3834,98 +4400,263 @@
       <c r="B4">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="0">RADIANS(A4)</f>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="1">RADIANS(A4-60)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="2">A4-60</f>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" ref="A5:A14" si="0">A4+5</f>
+        <f t="shared" ref="A5:A14" si="3">A4+5</f>
         <v>70</v>
       </c>
       <c r="B5">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B6">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B7">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B8">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B9">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B10">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B11">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B12">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.8325957145940461</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B13">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B14">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.0071286397934789</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>A14+5</f>
         <v>120</v>
@@ -3933,58 +4664,163 @@
       <c r="B15">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" ref="A16:A20" si="1">A15+5</f>
+        <f t="shared" ref="A16:A20" si="4">A15+5</f>
         <v>125</v>
       </c>
       <c r="B16">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.1816615649929121</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="J16">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B17">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B18">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="J18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B19">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B20">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.530727415391778</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="J20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>A20+5</f>
         <v>150</v>
       </c>
       <c r="B21">
+        <v>2E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="J21">
         <v>2E-3</v>
       </c>
     </row>
@@ -3997,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11D8CEC-93A0-4611-A914-CE91C39F83EE}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
